--- a/data/CULTUREETIQUETTE.xlsx
+++ b/data/CULTUREETIQUETTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91588949-6F49-486C-9244-90C17F0F9D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBA5C9F-8122-432D-B839-FB15A629FF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73E43577-24A6-4407-87AE-47175E70CED0}"/>
   </bookViews>
@@ -25,70 +25,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>culture</t>
   </si>
   <si>
-    <t>beliefs, customs, and traditions of a specific group of people (văn hóa)</t>
-  </si>
-  <si>
     <t>table manners</t>
   </si>
   <si>
-    <t>rules for polite behavior when eating with other people (quy tắc bàn ăn)</t>
-  </si>
-  <si>
     <t>family dinner hour</t>
   </si>
   <si>
-    <t>the time of day when family members sit down to eat dinner together</t>
-  </si>
-  <si>
     <t>elbows</t>
   </si>
   <si>
-    <t>the part of your arm that bends (khuỷu tay)</t>
-  </si>
-  <si>
     <t>curfew</t>
   </si>
   <si>
-    <t>a set time at which you must be home at night (giờ giới nghiêm)</t>
-  </si>
-  <si>
     <t>old-fashioned</t>
   </si>
   <si>
-    <t>not modern (lỗi thời)</t>
-  </si>
-  <si>
     <t>dating customs</t>
   </si>
   <si>
-    <t>how people meet, what they do on dates, and how they act when they like someone</t>
-  </si>
-  <si>
     <t>be grounded</t>
   </si>
   <si>
-    <t>be forbidden from going out as a punishment (bị cấm túc)</t>
-  </si>
-  <si>
     <t>Từ vựng / Cụm từ (English)</t>
   </si>
   <si>
-    <t>Nghĩa / Giải thích (Vietnamese/English)</t>
-  </si>
-  <si>
-    <t>Examples</t>
+    <t>Nghĩa / Giải thích (Vietnamese)</t>
+  </si>
+  <si>
+    <t>Examples (Ví dụ)</t>
+  </si>
+  <si>
+    <t>văn hóa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We should respect the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>culture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of other countries.</t>
+    </r>
+  </si>
+  <si>
+    <t>quy tắc bàn ăn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Good </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>table manners</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> are important at formal dinners.</t>
+    </r>
+  </si>
+  <si>
+    <t>giờ ăn tối gia đình</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We try to keep the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>family dinner hour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> free of distractions.</t>
+    </r>
+  </si>
+  <si>
+    <t>khuỷu tay</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is impolite to put your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>elbows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on the table while eating.</t>
+    </r>
+  </si>
+  <si>
+    <t>giờ giới nghiêm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My parents set a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>curfew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of 10 PM on school nights.</t>
+    </r>
+  </si>
+  <si>
+    <t>lỗi thời</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He has some </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>old-fashioned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ideas about raising children.</t>
+    </r>
+  </si>
+  <si>
+    <t>phong tục hẹn hò</t>
+  </si>
+  <si>
+    <r>
+      <t>Dating customs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> vary significantly around the world.</t>
+    </r>
+  </si>
+  <si>
+    <t>bị cấm túc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>be grounded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for a week because of his bad grades.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +279,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -120,17 +309,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -138,14 +327,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,92 +657,109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
